--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Agrn-Dag1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Agrn-Dag1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.6076090210126</v>
+        <v>17.306265</v>
       </c>
       <c r="H2">
-        <v>12.6076090210126</v>
+        <v>51.918795</v>
       </c>
       <c r="I2">
-        <v>0.4726463295143816</v>
+        <v>0.5463168539988408</v>
       </c>
       <c r="J2">
-        <v>0.4726463295143816</v>
+        <v>0.5463168539988407</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.836623395229</v>
+        <v>14.792724</v>
       </c>
       <c r="N2">
-        <v>10.836623395229</v>
+        <v>44.378172</v>
       </c>
       <c r="O2">
-        <v>0.07117112641913895</v>
+        <v>0.0761423615956231</v>
       </c>
       <c r="P2">
-        <v>0.07117112641913895</v>
+        <v>0.0761423615956231</v>
       </c>
       <c r="Q2">
-        <v>136.6239108750053</v>
+        <v>256.00680161586</v>
       </c>
       <c r="R2">
-        <v>136.6239108750053</v>
+        <v>2304.06121454274</v>
       </c>
       <c r="S2">
-        <v>0.03363877166941006</v>
+        <v>0.04159785544296297</v>
       </c>
       <c r="T2">
-        <v>0.03363877166941006</v>
+        <v>0.04159785544296295</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.6076090210126</v>
+        <v>17.306265</v>
       </c>
       <c r="H3">
-        <v>12.6076090210126</v>
+        <v>51.918795</v>
       </c>
       <c r="I3">
-        <v>0.4726463295143816</v>
+        <v>0.5463168539988408</v>
       </c>
       <c r="J3">
-        <v>0.4726463295143816</v>
+        <v>0.5463168539988407</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.2145982790416</v>
+        <v>44.28072733333334</v>
       </c>
       <c r="N3">
-        <v>44.2145982790416</v>
+        <v>132.842182</v>
       </c>
       <c r="O3">
-        <v>0.2903859116368799</v>
+        <v>0.2279255093471533</v>
       </c>
       <c r="P3">
-        <v>0.2903859116368799</v>
+        <v>0.2279255093471533</v>
       </c>
       <c r="Q3">
-        <v>557.4403681232931</v>
+        <v>766.3340016234101</v>
       </c>
       <c r="R3">
-        <v>557.4403681232931</v>
+        <v>6897.006014610691</v>
       </c>
       <c r="S3">
-        <v>0.1372498352778588</v>
+        <v>0.1245195472126202</v>
       </c>
       <c r="T3">
-        <v>0.1372498352778588</v>
+        <v>0.1245195472126201</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.6076090210126</v>
+        <v>17.306265</v>
       </c>
       <c r="H4">
-        <v>12.6076090210126</v>
+        <v>51.918795</v>
       </c>
       <c r="I4">
-        <v>0.4726463295143816</v>
+        <v>0.5463168539988408</v>
       </c>
       <c r="J4">
-        <v>0.4726463295143816</v>
+        <v>0.5463168539988407</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>97.2102913922821</v>
+        <v>135.203738</v>
       </c>
       <c r="N4">
-        <v>97.2102913922821</v>
+        <v>405.611214</v>
       </c>
       <c r="O4">
-        <v>0.6384429619439812</v>
+        <v>0.6959321290572236</v>
       </c>
       <c r="P4">
-        <v>0.6384429619439812</v>
+        <v>0.6959321290572236</v>
       </c>
       <c r="Q4">
-        <v>1225.589346692599</v>
+        <v>2339.87171881857</v>
       </c>
       <c r="R4">
-        <v>1225.589346692599</v>
+        <v>21058.84546936713</v>
       </c>
       <c r="S4">
-        <v>0.3017577225671128</v>
+        <v>0.3801994513432576</v>
       </c>
       <c r="T4">
-        <v>0.3017577225671128</v>
+        <v>0.3801994513432576</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.27971176858846</v>
+        <v>3.344413333333334</v>
       </c>
       <c r="H5">
-        <v>3.27971176858846</v>
+        <v>10.03324</v>
       </c>
       <c r="I5">
-        <v>0.1229530299285847</v>
+        <v>0.1055750256186672</v>
       </c>
       <c r="J5">
-        <v>0.1229530299285847</v>
+        <v>0.1055750256186672</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.836623395229</v>
+        <v>14.792724</v>
       </c>
       <c r="N5">
-        <v>10.836623395229</v>
+        <v>44.378172</v>
       </c>
       <c r="O5">
-        <v>0.07117112641913895</v>
+        <v>0.0761423615956231</v>
       </c>
       <c r="P5">
-        <v>0.07117112641913895</v>
+        <v>0.0761423615956231</v>
       </c>
       <c r="Q5">
-        <v>35.54100128109358</v>
+        <v>49.47298338192</v>
       </c>
       <c r="R5">
-        <v>35.54100128109358</v>
+        <v>445.25685043728</v>
       </c>
       <c r="S5">
-        <v>0.008750705636663475</v>
+        <v>0.008038731776123728</v>
       </c>
       <c r="T5">
-        <v>0.008750705636663475</v>
+        <v>0.008038731776123726</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.27971176858846</v>
+        <v>3.344413333333334</v>
       </c>
       <c r="H6">
-        <v>3.27971176858846</v>
+        <v>10.03324</v>
       </c>
       <c r="I6">
-        <v>0.1229530299285847</v>
+        <v>0.1055750256186672</v>
       </c>
       <c r="J6">
-        <v>0.1229530299285847</v>
+        <v>0.1055750256186672</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.2145982790416</v>
+        <v>44.28072733333334</v>
       </c>
       <c r="N6">
-        <v>44.2145982790416</v>
+        <v>132.842182</v>
       </c>
       <c r="O6">
-        <v>0.2903859116368799</v>
+        <v>0.2279255093471533</v>
       </c>
       <c r="P6">
-        <v>0.2903859116368799</v>
+        <v>0.2279255093471533</v>
       </c>
       <c r="Q6">
-        <v>145.0111383191838</v>
+        <v>148.0930549032978</v>
       </c>
       <c r="R6">
-        <v>145.0111383191838</v>
+        <v>1332.83749412968</v>
       </c>
       <c r="S6">
-        <v>0.03570382768432864</v>
+        <v>0.02406324148847347</v>
       </c>
       <c r="T6">
-        <v>0.03570382768432864</v>
+        <v>0.02406324148847347</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.27971176858846</v>
+        <v>3.344413333333334</v>
       </c>
       <c r="H7">
-        <v>3.27971176858846</v>
+        <v>10.03324</v>
       </c>
       <c r="I7">
-        <v>0.1229530299285847</v>
+        <v>0.1055750256186672</v>
       </c>
       <c r="J7">
-        <v>0.1229530299285847</v>
+        <v>0.1055750256186672</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>97.2102913922821</v>
+        <v>135.203738</v>
       </c>
       <c r="N7">
-        <v>97.2102913922821</v>
+        <v>405.611214</v>
       </c>
       <c r="O7">
-        <v>0.6384429619439812</v>
+        <v>0.6959321290572236</v>
       </c>
       <c r="P7">
-        <v>0.6384429619439812</v>
+        <v>0.6959321290572236</v>
       </c>
       <c r="Q7">
-        <v>318.8217367071811</v>
+        <v>452.1771840837068</v>
       </c>
       <c r="R7">
-        <v>318.8217367071811</v>
+        <v>4069.594656753361</v>
       </c>
       <c r="S7">
-        <v>0.07849849660759257</v>
+        <v>0.07347305235406996</v>
       </c>
       <c r="T7">
-        <v>0.07849849660759257</v>
+        <v>0.07347305235406996</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.7871887405295</v>
+        <v>11.02739433333333</v>
       </c>
       <c r="H8">
-        <v>10.7871887405295</v>
+        <v>33.082183</v>
       </c>
       <c r="I8">
-        <v>0.4044006405570338</v>
+        <v>0.3481081203824922</v>
       </c>
       <c r="J8">
-        <v>0.4044006405570338</v>
+        <v>0.3481081203824921</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.836623395229</v>
+        <v>14.792724</v>
       </c>
       <c r="N8">
-        <v>10.836623395229</v>
+        <v>44.378172</v>
       </c>
       <c r="O8">
-        <v>0.07117112641913895</v>
+        <v>0.0761423615956231</v>
       </c>
       <c r="P8">
-        <v>0.07117112641913895</v>
+        <v>0.0761423615956231</v>
       </c>
       <c r="Q8">
-        <v>116.8967018743728</v>
+        <v>163.125200812164</v>
       </c>
       <c r="R8">
-        <v>116.8967018743728</v>
+        <v>1468.126807309476</v>
       </c>
       <c r="S8">
-        <v>0.02878164911306542</v>
+        <v>0.02650577437653641</v>
       </c>
       <c r="T8">
-        <v>0.02878164911306542</v>
+        <v>0.02650577437653641</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.7871887405295</v>
+        <v>11.02739433333333</v>
       </c>
       <c r="H9">
-        <v>10.7871887405295</v>
+        <v>33.082183</v>
       </c>
       <c r="I9">
-        <v>0.4044006405570338</v>
+        <v>0.3481081203824922</v>
       </c>
       <c r="J9">
-        <v>0.4044006405570338</v>
+        <v>0.3481081203824921</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>44.2145982790416</v>
+        <v>44.28072733333334</v>
       </c>
       <c r="N9">
-        <v>44.2145982790416</v>
+        <v>132.842182</v>
       </c>
       <c r="O9">
-        <v>0.2903859116368799</v>
+        <v>0.2279255093471533</v>
       </c>
       <c r="P9">
-        <v>0.2903859116368799</v>
+        <v>0.2279255093471533</v>
       </c>
       <c r="Q9">
-        <v>476.9512167227126</v>
+        <v>488.3010416714785</v>
       </c>
       <c r="R9">
-        <v>476.9512167227126</v>
+        <v>4394.709375043306</v>
       </c>
       <c r="S9">
-        <v>0.1174322486746924</v>
+        <v>0.07934272064605968</v>
       </c>
       <c r="T9">
-        <v>0.1174322486746924</v>
+        <v>0.07934272064605967</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.7871887405295</v>
+        <v>11.02739433333333</v>
       </c>
       <c r="H10">
-        <v>10.7871887405295</v>
+        <v>33.082183</v>
       </c>
       <c r="I10">
-        <v>0.4044006405570338</v>
+        <v>0.3481081203824922</v>
       </c>
       <c r="J10">
-        <v>0.4044006405570338</v>
+        <v>0.3481081203824921</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>97.2102913922821</v>
+        <v>135.203738</v>
       </c>
       <c r="N10">
-        <v>97.2102913922821</v>
+        <v>405.611214</v>
       </c>
       <c r="O10">
-        <v>0.6384429619439812</v>
+        <v>0.6959321290572236</v>
       </c>
       <c r="P10">
-        <v>0.6384429619439812</v>
+        <v>0.6959321290572236</v>
       </c>
       <c r="Q10">
-        <v>1048.625760770417</v>
+        <v>1490.944934266685</v>
       </c>
       <c r="R10">
-        <v>1048.625760770417</v>
+        <v>13418.50440840016</v>
       </c>
       <c r="S10">
-        <v>0.2581867427692759</v>
+        <v>0.2422596253598961</v>
       </c>
       <c r="T10">
-        <v>0.2581867427692759</v>
+        <v>0.242259625359896</v>
       </c>
     </row>
   </sheetData>
